--- a/data/trans_bre/P44_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-20,44</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,1</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,46</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,62%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>65,9%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,40 +694,50 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-70,7; 30,16</t>
+          <t>-19,26; 11,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-69,96; 44,56</t>
+          <t>-8,32; 19,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 19,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 71,11</t>
+          <t>0,0; 16,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 85,16</t>
+          <t>-17,68; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,98; —</t>
+          <t>-86,87; 303,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,85</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>155,71%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>423,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>383,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 39,84</t>
+          <t>-35,61; 14,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 53,68</t>
+          <t>4,92; 28,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 43,36</t>
+          <t>0,0; 18,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 43,55</t>
+          <t>4,85; 24,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,93; 725,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,48; —</t>
+          <t>-92,97; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 459,48</t>
+          <t>21,6; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,75; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-17,98</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-26,95</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,17%</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,25%</t>
+          <t>-37,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-63,17%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-53,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-18,53%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 6,77</t>
+          <t>-10,51; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 27,55</t>
+          <t>-8,93; 3,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-64,22; 7,41</t>
+          <t>-9,96; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 22,54</t>
+          <t>-8,75; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,58; 35,05</t>
+          <t>0,0; 10,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,8; 268,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-94,2; 140,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-87,91; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,75</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,21</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,94%</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,33%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>-15,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>277,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>303,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -968,32 +1054,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,58; 16,33</t>
+          <t>-6,45; 7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 13,97</t>
+          <t>-7,85; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 32,85</t>
+          <t>-0,71; 9,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,09; 24,09</t>
+          <t>-0,5; 9,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,71; 67,06</t>
+          <t>0,8; 8,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 80,35</t>
+          <t>-70,35; 340,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1089,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,58; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>317,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>104,12%</t>
+          <t>363,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>135,11%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>203,99%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1174,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 29,37</t>
+          <t>-0,8; 13,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 30,49</t>
+          <t>-0,55; 14,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 31,07</t>
+          <t>0,0; 11,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 35,48</t>
+          <t>0,0; 13,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,74; 823,98</t>
+          <t>-2,46; 11,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1102,6 +1208,16 @@
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1120,40 +1236,50 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1206,6 +1332,16 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>229,77%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>598,22%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>137,16%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 9,6</t>
+          <t>-7,41; 3,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 18,92</t>
+          <t>0,45; 7,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 17,62</t>
+          <t>0,75; 5,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 22,44</t>
+          <t>1,75; 6,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 34,53</t>
+          <t>-0,89; 2,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 120,32</t>
+          <t>-63,71; 104,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 115,18</t>
+          <t>3,19; 380,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 274,98</t>
+          <t>1,11; 1231,16</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,98; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
